--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1663211.138689093</v>
+        <v>-1665139.900592667</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3181294.395516921</v>
+        <v>3181294.395516922</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>274.8776309323906</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>166.4457214267534</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>26.81268318454093</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>84.42548552683468</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>86.23693751337954</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.97132048399258</v>
+        <v>14.97132048399257</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>129.0507428586465</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>201.4679039890863</v>
+        <v>201.4679039890862</v>
       </c>
       <c r="T5" t="n">
-        <v>221.6450715103052</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3191395453451</v>
       </c>
       <c r="V5" t="n">
-        <v>128.9102418861128</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>331.2414836209405</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>331.2414836209405</v>
       </c>
       <c r="Y5" t="n">
-        <v>331.2414836209386</v>
+        <v>148.3645726341294</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>163.6009822998693</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>83.29140743633006</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>197.9437374714801</v>
+        <v>225.9297160451498</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>11.95280879161243</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4.997638917232198</v>
+        <v>4.997638917231857</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>221.4258201006747</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>9.111642043030166</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>140.4022687155553</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>142.3945047270884</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274016</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>91.49969304799038</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>21.86696197154509</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>25.82923535834087</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>36.64289342877655</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>28.66545973431523</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>210.9685212521341</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.452422886126669</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>5.107731335945033</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.2303518676588</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>139.6451927843493</v>
       </c>
       <c r="D28" t="n">
-        <v>121.0138447039338</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>118.8323343322907</v>
+        <v>109.4421938462266</v>
       </c>
       <c r="F28" t="n">
-        <v>117.8194197086527</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>138.8919401490991</v>
@@ -2731,7 +2731,7 @@
         <v>121.3122000532576</v>
       </c>
       <c r="I28" t="n">
-        <v>82.81761714999345</v>
+        <v>82.81761714999348</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>82.36272408951427</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>170.3191816693248</v>
       </c>
       <c r="T28" t="n">
-        <v>140.0843576419115</v>
+        <v>193.9459327441108</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>258.6357240842988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>198.1080270747586</v>
+        <v>198.1080270747587</v>
       </c>
       <c r="Y28" t="n">
         <v>190.9830250378163</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.6451927843493</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>118.8323343322907</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>117.8194197086527</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>95.5049667856288</v>
       </c>
       <c r="H31" t="n">
-        <v>100.782020869855</v>
+        <v>121.3122000532576</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>82.81761714999348</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>170.3191816693248</v>
       </c>
       <c r="T31" t="n">
-        <v>193.9459327441107</v>
+        <v>193.9459327441108</v>
       </c>
       <c r="U31" t="n">
         <v>258.6357240842988</v>
@@ -3013,10 +3013,10 @@
         <v>258.9213700223125</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>198.1080270747587</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.9830250378163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C35" t="n">
         <v>297.1410016413669</v>
@@ -3272,7 +3272,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E35" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F35" t="n">
         <v>338.7441556120708</v>
@@ -3281,10 +3281,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H35" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I35" t="n">
-        <v>13.64724492310012</v>
+        <v>13.64724492310008</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555816</v>
       </c>
       <c r="T35" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088612</v>
       </c>
       <c r="U35" t="n">
-        <v>182.9467051201604</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V35" t="n">
-        <v>259.6203683404931</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W35" t="n">
-        <v>281.1090785877724</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X35" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264129</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C38" t="n">
         <v>297.1410016413669</v>
@@ -3509,7 +3509,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E38" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F38" t="n">
         <v>338.7441556120708</v>
@@ -3518,10 +3518,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H38" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I38" t="n">
-        <v>13.64724492310008</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.81847467555816</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T38" t="n">
-        <v>140.3508982088612</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U38" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V38" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404931</v>
       </c>
       <c r="W38" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X38" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y38" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492309973</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>182.9467051201603</v>
       </c>
       <c r="V41" t="n">
-        <v>259.6203683404931</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W41" t="n">
         <v>281.1090785877724</v>
@@ -3995,7 +3995,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I44" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555738</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T44" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U44" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V44" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404931</v>
       </c>
       <c r="W44" t="n">
         <v>281.1090785877724</v>
@@ -4043,7 +4043,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>404.2843284558962</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="C2" t="n">
-        <v>404.2843284558962</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="D2" t="n">
-        <v>404.2843284558962</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="E2" t="n">
-        <v>404.2843284558962</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="F2" t="n">
-        <v>397.3388277066927</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438682</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173955</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
         <v>989.7620250901064</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>962.1762753293416</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="U2" t="n">
-        <v>962.1762753293416</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="V2" t="n">
-        <v>962.1762753293416</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="W2" t="n">
-        <v>962.1762753293416</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="X2" t="n">
-        <v>962.1762753293416</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="Y2" t="n">
-        <v>683.2303018926189</v>
+        <v>879.8992409003627</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>615.4536795074641</v>
+        <v>643.3721508154761</v>
       </c>
       <c r="C3" t="n">
-        <v>615.4536795074641</v>
+        <v>468.9191215343491</v>
       </c>
       <c r="D3" t="n">
-        <v>466.5192698462128</v>
+        <v>319.9847118730978</v>
       </c>
       <c r="E3" t="n">
-        <v>307.2818148407573</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="F3" t="n">
-        <v>160.7472568676422</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>121.6947060708167</v>
+        <v>42.78065525324476</v>
       </c>
       <c r="L3" t="n">
-        <v>367.8501726635176</v>
+        <v>288.9361218459458</v>
       </c>
       <c r="M3" t="n">
-        <v>641.2451212288495</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288495</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4434,25 +4434,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1077.542536441199</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>1077.542536441199</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>1077.542536441199</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>1077.542536441199</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W3" t="n">
-        <v>823.305179712997</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X3" t="n">
-        <v>615.4536795074641</v>
+        <v>1019.347786600498</v>
       </c>
       <c r="Y3" t="n">
-        <v>615.4536795074641</v>
+        <v>811.5874878355442</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>111.8846993128535</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>111.8846993128535</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>111.8846993128535</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>111.8846993128535</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>111.8846993128535</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>111.8846993128535</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>111.8846993128535</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>111.8846993128535</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031358</v>
+        <v>111.8846993128535</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031358</v>
+        <v>111.8846993128535</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.56736538230541</v>
+        <v>48.56736538230555</v>
       </c>
       <c r="C5" t="n">
-        <v>48.56736538230541</v>
+        <v>48.56736538230555</v>
       </c>
       <c r="D5" t="n">
-        <v>48.56736538230541</v>
+        <v>48.56736538230555</v>
       </c>
       <c r="E5" t="n">
-        <v>48.56736538230541</v>
+        <v>48.56736538230555</v>
       </c>
       <c r="F5" t="n">
-        <v>41.62186463310194</v>
+        <v>41.62186463310208</v>
       </c>
       <c r="G5" t="n">
-        <v>26.49931868967509</v>
+        <v>26.49931868967524</v>
       </c>
       <c r="H5" t="n">
-        <v>26.49931868967509</v>
+        <v>26.49931868967524</v>
       </c>
       <c r="I5" t="n">
-        <v>26.49931868967509</v>
+        <v>26.49931868967524</v>
       </c>
       <c r="J5" t="n">
-        <v>42.51684241306759</v>
+        <v>42.51684241306828</v>
       </c>
       <c r="K5" t="n">
-        <v>187.267762607427</v>
+        <v>187.2677626074286</v>
       </c>
       <c r="L5" t="n">
-        <v>419.1207064026809</v>
+        <v>419.1207064026833</v>
       </c>
       <c r="M5" t="n">
-        <v>693.7083251274843</v>
+        <v>693.7083251274879</v>
       </c>
       <c r="N5" t="n">
-        <v>958.107061049959</v>
+        <v>958.1070610499639</v>
       </c>
       <c r="O5" t="n">
-        <v>1162.583652085454</v>
+        <v>1162.58365208546</v>
       </c>
       <c r="P5" t="n">
-        <v>1299.425308893585</v>
+        <v>1299.425308893592</v>
       </c>
       <c r="Q5" t="n">
-        <v>1324.965934483754</v>
+        <v>1324.965934483762</v>
       </c>
       <c r="R5" t="n">
-        <v>1194.61164876795</v>
+        <v>1324.965934483762</v>
       </c>
       <c r="S5" t="n">
-        <v>991.1087154456404</v>
+        <v>1121.463001161453</v>
       </c>
       <c r="T5" t="n">
-        <v>767.2248048291706</v>
+        <v>1121.463001161453</v>
       </c>
       <c r="U5" t="n">
-        <v>513.3670881167008</v>
+        <v>867.6052844489828</v>
       </c>
       <c r="V5" t="n">
-        <v>383.1547225751727</v>
+        <v>867.6052844489828</v>
       </c>
       <c r="W5" t="n">
-        <v>383.1547225751727</v>
+        <v>533.0179272561136</v>
       </c>
       <c r="X5" t="n">
-        <v>383.1547225751727</v>
+        <v>198.4305700632444</v>
       </c>
       <c r="Y5" t="n">
-        <v>48.56736538230541</v>
+        <v>48.56736538230555</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>259.5664631350982</v>
+        <v>26.49931868967524</v>
       </c>
       <c r="C6" t="n">
-        <v>259.5664631350982</v>
+        <v>26.49931868967524</v>
       </c>
       <c r="D6" t="n">
-        <v>110.6320534738469</v>
+        <v>26.49931868967524</v>
       </c>
       <c r="E6" t="n">
-        <v>110.6320534738469</v>
+        <v>26.49931868967524</v>
       </c>
       <c r="F6" t="n">
-        <v>110.6320534738469</v>
+        <v>26.49931868967524</v>
       </c>
       <c r="G6" t="n">
-        <v>110.6320534738469</v>
+        <v>26.49931868967524</v>
       </c>
       <c r="H6" t="n">
-        <v>110.6320534738469</v>
+        <v>26.49931868967524</v>
       </c>
       <c r="I6" t="n">
-        <v>26.49931868967509</v>
+        <v>26.49931868967524</v>
       </c>
       <c r="J6" t="n">
-        <v>26.49931868967509</v>
+        <v>26.49931868967524</v>
       </c>
       <c r="K6" t="n">
-        <v>26.49931868967509</v>
+        <v>180.2044358514767</v>
       </c>
       <c r="L6" t="n">
-        <v>294.5792133901319</v>
+        <v>448.2843305519343</v>
       </c>
       <c r="M6" t="n">
-        <v>398.5461685816598</v>
+        <v>776.2133993366654</v>
       </c>
       <c r="N6" t="n">
-        <v>726.475237366389</v>
+        <v>1016.996582846688</v>
       </c>
       <c r="O6" t="n">
-        <v>1016.996582846682</v>
+        <v>1016.996582846688</v>
       </c>
       <c r="P6" t="n">
-        <v>1233.162507731466</v>
+        <v>1233.162507731473</v>
       </c>
       <c r="Q6" t="n">
-        <v>1324.965934483754</v>
+        <v>1324.965934483762</v>
       </c>
       <c r="R6" t="n">
-        <v>1324.965934483754</v>
+        <v>1324.965934483762</v>
       </c>
       <c r="S6" t="n">
-        <v>1324.965934483754</v>
+        <v>1324.965934483762</v>
       </c>
       <c r="T6" t="n">
-        <v>1324.965934483754</v>
+        <v>1324.965934483762</v>
       </c>
       <c r="U6" t="n">
-        <v>1125.022765320643</v>
+        <v>1096.754100094722</v>
       </c>
       <c r="V6" t="n">
-        <v>889.8706570889005</v>
+        <v>861.601991862979</v>
       </c>
       <c r="W6" t="n">
-        <v>635.633300360699</v>
+        <v>607.3646351347775</v>
       </c>
       <c r="X6" t="n">
-        <v>427.7818001551662</v>
+        <v>399.5131349292446</v>
       </c>
       <c r="Y6" t="n">
-        <v>427.7818001551662</v>
+        <v>191.7528361642907</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.54743880809145</v>
+        <v>43.62098304204321</v>
       </c>
       <c r="C7" t="n">
-        <v>31.54743880809145</v>
+        <v>43.62098304204321</v>
       </c>
       <c r="D7" t="n">
-        <v>31.54743880809145</v>
+        <v>43.62098304204321</v>
       </c>
       <c r="E7" t="n">
-        <v>31.54743880809145</v>
+        <v>43.62098304204321</v>
       </c>
       <c r="F7" t="n">
-        <v>31.54743880809145</v>
+        <v>43.62098304204321</v>
       </c>
       <c r="G7" t="n">
-        <v>31.54743880809145</v>
+        <v>31.54743880809126</v>
       </c>
       <c r="H7" t="n">
-        <v>31.54743880809145</v>
+        <v>31.54743880809126</v>
       </c>
       <c r="I7" t="n">
-        <v>31.54743880809145</v>
+        <v>31.54743880809126</v>
       </c>
       <c r="J7" t="n">
-        <v>31.54743880809145</v>
+        <v>31.54743880809126</v>
       </c>
       <c r="K7" t="n">
-        <v>26.49931868967509</v>
+        <v>26.49931868967524</v>
       </c>
       <c r="L7" t="n">
-        <v>75.69444867730921</v>
+        <v>75.69444867730979</v>
       </c>
       <c r="M7" t="n">
-        <v>137.9529386775772</v>
+        <v>137.9529386775782</v>
       </c>
       <c r="N7" t="n">
-        <v>204.1656773620591</v>
+        <v>204.1656773620606</v>
       </c>
       <c r="O7" t="n">
-        <v>249.3075628649915</v>
+        <v>249.3075628649934</v>
       </c>
       <c r="P7" t="n">
-        <v>264.4135621855711</v>
+        <v>264.4135621855733</v>
       </c>
       <c r="Q7" t="n">
-        <v>264.4135621855711</v>
+        <v>264.4135621855733</v>
       </c>
       <c r="R7" t="n">
-        <v>264.4135621855711</v>
+        <v>264.4135621855733</v>
       </c>
       <c r="S7" t="n">
-        <v>40.75111763943505</v>
+        <v>264.4135621855733</v>
       </c>
       <c r="T7" t="n">
-        <v>40.75111763943505</v>
+        <v>264.4135621855733</v>
       </c>
       <c r="U7" t="n">
-        <v>31.54743880809145</v>
+        <v>264.4135621855733</v>
       </c>
       <c r="V7" t="n">
-        <v>31.54743880809145</v>
+        <v>264.4135621855733</v>
       </c>
       <c r="W7" t="n">
-        <v>31.54743880809145</v>
+        <v>264.4135621855733</v>
       </c>
       <c r="X7" t="n">
-        <v>31.54743880809145</v>
+        <v>264.4135621855733</v>
       </c>
       <c r="Y7" t="n">
-        <v>31.54743880809145</v>
+        <v>43.62098304204321</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274027</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="F8" t="n">
         <v>799.1015098861748</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2322.110080805221</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.341425535107</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1595.875667274027</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1595.875667274027</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4887,19 +4887,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.4036268380754</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>211.4036268380754</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>211.4036268380754</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.4036268380754</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5030,34 +5030,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822456</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141288</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5224,22 +5224,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
         <v>97.21709146028584</v>
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,28 +5261,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5318,10 +5318,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>846.3978353108171</v>
+        <v>916.7755322525278</v>
       </c>
       <c r="C16" t="n">
-        <v>677.4616523829102</v>
+        <v>916.7755322525278</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>766.6588928401922</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
         <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.828430182604</v>
+        <v>1098.423997082768</v>
       </c>
       <c r="X16" t="n">
-        <v>1248.838879284587</v>
+        <v>1098.423997082768</v>
       </c>
       <c r="Y16" t="n">
-        <v>1028.046300141057</v>
+        <v>1098.423997082768</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,13 +5513,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,13 +5592,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
         <v>1247.466478653857</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>441.9005583181187</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C19" t="n">
-        <v>441.9005583181187</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D19" t="n">
-        <v>441.9005583181187</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550793</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181187</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X19" t="n">
-        <v>441.9005583181187</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.9005583181187</v>
+        <v>861.4909633328887</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514073</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,16 +5817,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>761.6147079354637</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>592.6785250075568</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749152</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799364</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>862.1113288466634</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>607.4268406407765</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W22" t="n">
-        <v>318.0096706038159</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>943.2631727657033</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1427.741252113634</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1757.603879777666</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2037.143944996363</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>840.6662285267283</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="C25" t="n">
-        <v>671.7300455988214</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="D25" t="n">
-        <v>671.7300455988214</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="E25" t="n">
-        <v>523.8169520164283</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185179</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
         <v>208.7516828383384</v>
@@ -6145,13 +6145,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1493.75694597614</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473454</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473454</v>
+        <v>980.8428919792036</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473454</v>
+        <v>726.1584037733166</v>
       </c>
       <c r="W25" t="n">
-        <v>1298.996260473454</v>
+        <v>436.741233736356</v>
       </c>
       <c r="X25" t="n">
-        <v>1071.006709575437</v>
+        <v>208.7516828383386</v>
       </c>
       <c r="Y25" t="n">
-        <v>850.2141304319068</v>
+        <v>208.7516828383385</v>
       </c>
     </row>
     <row r="26">
@@ -6203,46 +6203,46 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
@@ -6251,19 +6251,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6312,16 +6312,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>946.0378479063229</v>
+        <v>695.307135887484</v>
       </c>
       <c r="C28" t="n">
-        <v>804.9820976191014</v>
+        <v>554.2513856002624</v>
       </c>
       <c r="D28" t="n">
-        <v>682.7458908474511</v>
+        <v>554.2513856002624</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7132299057433</v>
+        <v>443.7037150485184</v>
       </c>
       <c r="F28" t="n">
-        <v>443.7037150485183</v>
+        <v>443.7037150485184</v>
       </c>
       <c r="G28" t="n">
-        <v>303.4088260090243</v>
+        <v>303.4088260090244</v>
       </c>
       <c r="H28" t="n">
         <v>180.871250197653</v>
@@ -6382,19 +6382,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>136.9253959553317</v>
+        <v>136.9253959553315</v>
       </c>
       <c r="K28" t="n">
-        <v>314.4364122310789</v>
+        <v>314.4364122310785</v>
       </c>
       <c r="L28" t="n">
-        <v>589.4740692733438</v>
+        <v>589.4740692733435</v>
       </c>
       <c r="M28" t="n">
-        <v>888.3664240716623</v>
+        <v>888.3664240716621</v>
       </c>
       <c r="N28" t="n">
-        <v>1186.236145130346</v>
+        <v>1186.236145130345</v>
       </c>
       <c r="O28" t="n">
         <v>1447.436735166878</v>
@@ -6403,31 +6403,31 @@
         <v>1651.362111803697</v>
       </c>
       <c r="Q28" t="n">
-        <v>1717.521166806989</v>
+        <v>1717.521166806988</v>
       </c>
       <c r="R28" t="n">
-        <v>1634.3264960095</v>
+        <v>1717.521166806988</v>
       </c>
       <c r="S28" t="n">
-        <v>1634.3264960095</v>
+        <v>1545.481589363226</v>
       </c>
       <c r="T28" t="n">
-        <v>1492.827144856054</v>
+        <v>1349.576606793417</v>
       </c>
       <c r="U28" t="n">
-        <v>1492.827144856054</v>
+        <v>1088.328400647661</v>
       </c>
       <c r="V28" t="n">
-        <v>1492.827144856054</v>
+        <v>1088.328400647661</v>
       </c>
       <c r="W28" t="n">
-        <v>1492.827144856054</v>
+        <v>1088.328400647661</v>
       </c>
       <c r="X28" t="n">
-        <v>1292.718026598722</v>
+        <v>888.2192823903288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1099.805880095877</v>
+        <v>695.307135887484</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6558,7 +6558,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>579.1150386271017</v>
+        <v>399.8784894288513</v>
       </c>
       <c r="C31" t="n">
-        <v>438.0592883398802</v>
+        <v>399.8784894288513</v>
       </c>
       <c r="D31" t="n">
-        <v>438.0592883398802</v>
+        <v>399.8784894288513</v>
       </c>
       <c r="E31" t="n">
-        <v>318.0266273981724</v>
+        <v>399.8784894288513</v>
       </c>
       <c r="F31" t="n">
-        <v>199.0171125409474</v>
+        <v>399.8784894288513</v>
       </c>
       <c r="G31" t="n">
-        <v>199.0171125409474</v>
+        <v>303.4088260090243</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>180.871250197653</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>136.9253959553316</v>
+        <v>136.9253959553315</v>
       </c>
       <c r="K31" t="n">
-        <v>314.4364122310787</v>
+        <v>314.4364122310785</v>
       </c>
       <c r="L31" t="n">
-        <v>589.4740692733437</v>
+        <v>589.4740692733435</v>
       </c>
       <c r="M31" t="n">
-        <v>888.3664240716623</v>
+        <v>888.3664240716621</v>
       </c>
       <c r="N31" t="n">
-        <v>1186.236145130346</v>
+        <v>1186.236145130345</v>
       </c>
       <c r="O31" t="n">
         <v>1447.436735166878</v>
@@ -6640,31 +6640,31 @@
         <v>1651.362111803697</v>
       </c>
       <c r="Q31" t="n">
-        <v>1717.521166806989</v>
+        <v>1717.521166806988</v>
       </c>
       <c r="R31" t="n">
-        <v>1717.521166806989</v>
+        <v>1717.521166806988</v>
       </c>
       <c r="S31" t="n">
-        <v>1717.521166806989</v>
+        <v>1545.481589363226</v>
       </c>
       <c r="T31" t="n">
-        <v>1521.61618423718</v>
+        <v>1349.576606793417</v>
       </c>
       <c r="U31" t="n">
-        <v>1260.367978091423</v>
+        <v>1088.32840064766</v>
       </c>
       <c r="V31" t="n">
-        <v>1033.563922526222</v>
+        <v>861.5243450824586</v>
       </c>
       <c r="W31" t="n">
-        <v>772.0271851299465</v>
+        <v>599.9876076861833</v>
       </c>
       <c r="X31" t="n">
-        <v>772.0271851299465</v>
+        <v>399.8784894288513</v>
       </c>
       <c r="Y31" t="n">
-        <v>579.1150386271017</v>
+        <v>399.8784894288513</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,13 +6877,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F35" t="n">
-        <v>676.79136368729</v>
+        <v>676.7913636872897</v>
       </c>
       <c r="G35" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922889</v>
       </c>
       <c r="H35" t="n">
-        <v>89.93481253402933</v>
+        <v>89.93481253402928</v>
       </c>
       <c r="I35" t="n">
         <v>76.14971665211002</v>
@@ -6938,25 +6938,25 @@
         <v>344.8139583742029</v>
       </c>
       <c r="K35" t="n">
-        <v>547.3128584977795</v>
+        <v>868.2168169432326</v>
       </c>
       <c r="L35" t="n">
-        <v>1248.917014541578</v>
+        <v>1569.820972987031</v>
       </c>
       <c r="M35" t="n">
-        <v>1826.996552080633</v>
+        <v>2144.761595724287</v>
       </c>
       <c r="N35" t="n">
-        <v>2189.568218016799</v>
+        <v>2507.333261660453</v>
       </c>
       <c r="O35" t="n">
-        <v>2895.591279040995</v>
+        <v>2836.364143234531</v>
       </c>
       <c r="P35" t="n">
-        <v>3460.491244296798</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q35" t="n">
-        <v>3807.4858326055</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R35" t="n">
         <v>3807.4858326055</v>
@@ -6968,7 +6968,7 @@
         <v>3600.244041813157</v>
       </c>
       <c r="U35" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V35" t="n">
         <v>3153.206593873103</v>
@@ -6980,7 +6980,7 @@
         <v>2564.612362421991</v>
       </c>
       <c r="Y35" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J36" t="n">
-        <v>117.6407938174676</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K36" t="n">
-        <v>528.5310626619803</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L36" t="n">
-        <v>870.3732653538098</v>
+        <v>900.1263155554491</v>
       </c>
       <c r="M36" t="n">
-        <v>1177.693398633771</v>
+        <v>1207.446448835411</v>
       </c>
       <c r="N36" t="n">
-        <v>1507.556026297804</v>
+        <v>1537.309076499444</v>
       </c>
       <c r="O36" t="n">
-        <v>1787.096091516501</v>
+        <v>1816.849141718141</v>
       </c>
       <c r="P36" t="n">
-        <v>2307.396713252248</v>
+        <v>2296.766701154948</v>
       </c>
       <c r="Q36" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R36" t="n">
         <v>2602.506130567962</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.3928643026572</v>
+        <v>638.3928643026574</v>
       </c>
       <c r="C37" t="n">
-        <v>538.2767724147914</v>
+        <v>538.2767724147915</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424967</v>
+        <v>456.9802240424968</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001446</v>
+        <v>377.8872215001448</v>
       </c>
       <c r="F37" t="n">
-        <v>299.8173650422753</v>
+        <v>299.8173650422756</v>
       </c>
       <c r="G37" t="n">
-        <v>200.462134402137</v>
+        <v>200.4621344021373</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901214</v>
       </c>
       <c r="I37" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J37" t="n">
-        <v>155.9829803443641</v>
+        <v>155.9829803443643</v>
       </c>
       <c r="K37" t="n">
         <v>373.6189558173201</v>
@@ -7108,10 +7108,10 @@
         <v>1365.793566308212</v>
       </c>
       <c r="O37" t="n">
-        <v>1667.119115541953</v>
+        <v>1667.119115541954</v>
       </c>
       <c r="P37" t="n">
-        <v>1911.16945137598</v>
+        <v>1911.169451375981</v>
       </c>
       <c r="Q37" t="n">
         <v>2017.453465576481</v>
@@ -7120,10 +7120,10 @@
         <v>1975.198453178347</v>
       </c>
       <c r="S37" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T37" t="n">
-        <v>1689.133209963487</v>
+        <v>1689.133209963488</v>
       </c>
       <c r="U37" t="n">
         <v>1468.824662217087</v>
@@ -7135,10 +7135,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963451</v>
+        <v>903.193726196345</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928559</v>
+        <v>751.221238092856</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1925.513372462139</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C38" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D38" t="n">
-        <v>1335.925338995059</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E38" t="n">
         <v>1018.957177436856</v>
       </c>
       <c r="F38" t="n">
-        <v>676.7913636872895</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G38" t="n">
-        <v>329.4856801922887</v>
+        <v>329.485680192289</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402928</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I38" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J38" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K38" t="n">
-        <v>590.7154876889653</v>
+        <v>700.8111679228796</v>
       </c>
       <c r="L38" t="n">
-        <v>1292.319643732763</v>
+        <v>1402.415323966678</v>
       </c>
       <c r="M38" t="n">
-        <v>2089.595997452654</v>
+        <v>2199.691677686568</v>
       </c>
       <c r="N38" t="n">
         <v>2885.141118556685</v>
@@ -7211,13 +7211,13 @@
         <v>3153.206593873103</v>
       </c>
       <c r="W38" t="n">
-        <v>2869.258029643029</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X38" t="n">
-        <v>2564.61236242199</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J39" t="n">
-        <v>117.6407938174676</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K39" t="n">
-        <v>464.4527104554118</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L39" t="n">
-        <v>1078.3497802123</v>
+        <v>900.1263155554491</v>
       </c>
       <c r="M39" t="n">
-        <v>1385.669913492262</v>
+        <v>1207.446448835411</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.532541156295</v>
+        <v>1537.309076499444</v>
       </c>
       <c r="O39" t="n">
-        <v>1995.072606374992</v>
+        <v>1816.849141718141</v>
       </c>
       <c r="P39" t="n">
-        <v>2515.373228110739</v>
+        <v>2296.766701154948</v>
       </c>
       <c r="Q39" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R39" t="n">
         <v>2602.506130567962</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.3928643026572</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147916</v>
+        <v>538.2767724147911</v>
       </c>
       <c r="D40" t="n">
-        <v>456.980224042497</v>
+        <v>456.9802240424968</v>
       </c>
       <c r="E40" t="n">
-        <v>377.887221500145</v>
+        <v>377.8872215001447</v>
       </c>
       <c r="F40" t="n">
         <v>299.8173650422755</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021372</v>
+        <v>200.4621344021371</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I40" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J40" t="n">
-        <v>155.9829803443643</v>
+        <v>155.9829803443641</v>
       </c>
       <c r="K40" t="n">
-        <v>373.6189558173199</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L40" t="n">
-        <v>688.7815720567935</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M40" t="n">
         <v>1027.798886052321</v>
       </c>
       <c r="N40" t="n">
-        <v>1365.793566308212</v>
+        <v>1365.793566308213</v>
       </c>
       <c r="O40" t="n">
         <v>1667.119115541954</v>
@@ -7354,7 +7354,7 @@
         <v>2017.453465576481</v>
       </c>
       <c r="R40" t="n">
-        <v>1975.198453178348</v>
+        <v>1975.198453178347</v>
       </c>
       <c r="S40" t="n">
         <v>1844.098534133941</v>
@@ -7372,10 +7372,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X40" t="n">
-        <v>903.1937261963449</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2212380928559</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
     <row r="41">
@@ -7385,61 +7385,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1925.51337246214</v>
+        <v>1925.513372462139</v>
       </c>
       <c r="C41" t="n">
         <v>1625.370946561769</v>
       </c>
       <c r="D41" t="n">
-        <v>1335.92533899506</v>
+        <v>1335.925338995059</v>
       </c>
       <c r="E41" t="n">
         <v>1018.957177436856</v>
       </c>
       <c r="F41" t="n">
-        <v>676.79136368729</v>
+        <v>676.7913636872895</v>
       </c>
       <c r="G41" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922886</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402894</v>
       </c>
       <c r="I41" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J41" t="n">
-        <v>344.8139583742029</v>
+        <v>190.5044460993558</v>
       </c>
       <c r="K41" t="n">
-        <v>868.2168169432326</v>
+        <v>713.9073046683856</v>
       </c>
       <c r="L41" t="n">
-        <v>1156.336370582085</v>
+        <v>1415.511460712184</v>
       </c>
       <c r="M41" t="n">
-        <v>1508.594326144071</v>
+        <v>1767.76941627417</v>
       </c>
       <c r="N41" t="n">
-        <v>2189.568218016799</v>
+        <v>2130.341082210336</v>
       </c>
       <c r="O41" t="n">
-        <v>2895.591279040995</v>
+        <v>2836.364143234532</v>
       </c>
       <c r="P41" t="n">
-        <v>3460.491244296798</v>
+        <v>3401.264108490335</v>
       </c>
       <c r="Q41" t="n">
-        <v>3807.4858326055</v>
+        <v>3748.258696799038</v>
       </c>
       <c r="R41" t="n">
-        <v>3807.4858326055</v>
+        <v>3807.485832605501</v>
       </c>
       <c r="S41" t="n">
-        <v>3742.012625862512</v>
+        <v>3742.012625862513</v>
       </c>
       <c r="T41" t="n">
-        <v>3600.244041813157</v>
+        <v>3600.244041813158</v>
       </c>
       <c r="U41" t="n">
         <v>3415.449390176632</v>
@@ -7454,7 +7454,7 @@
         <v>2564.612362421991</v>
       </c>
       <c r="Y41" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7494,19 @@
         <v>528.5310626619803</v>
       </c>
       <c r="L42" t="n">
-        <v>870.3732653538098</v>
+        <v>1078.3497802123</v>
       </c>
       <c r="M42" t="n">
-        <v>1177.693398633771</v>
+        <v>1385.669913492262</v>
       </c>
       <c r="N42" t="n">
-        <v>1507.556026297804</v>
+        <v>1715.532541156295</v>
       </c>
       <c r="O42" t="n">
-        <v>1787.096091516501</v>
+        <v>1995.072606374992</v>
       </c>
       <c r="P42" t="n">
-        <v>2307.396713252248</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q42" t="n">
         <v>2602.506130567962</v>
@@ -7555,34 +7555,34 @@
         <v>377.8872215001446</v>
       </c>
       <c r="F43" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422753</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021371</v>
+        <v>200.462134402137</v>
       </c>
       <c r="H43" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901213</v>
       </c>
       <c r="I43" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J43" t="n">
-        <v>155.9829803443639</v>
+        <v>155.9829803443645</v>
       </c>
       <c r="K43" t="n">
-        <v>373.6189558173195</v>
+        <v>373.6189558173202</v>
       </c>
       <c r="L43" t="n">
-        <v>688.781572056793</v>
+        <v>688.7815720567936</v>
       </c>
       <c r="M43" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N43" t="n">
-        <v>1365.793566308212</v>
+        <v>1365.793566308213</v>
       </c>
       <c r="O43" t="n">
-        <v>1667.119115541953</v>
+        <v>1667.119115541954</v>
       </c>
       <c r="P43" t="n">
         <v>1911.169451375981</v>
@@ -7591,16 +7591,16 @@
         <v>2017.453465576481</v>
       </c>
       <c r="R43" t="n">
-        <v>1975.198453178348</v>
+        <v>1975.198453178347</v>
       </c>
       <c r="S43" t="n">
         <v>1844.098534133941</v>
       </c>
       <c r="T43" t="n">
-        <v>1689.133209963488</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U43" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V43" t="n">
         <v>1282.960265051241</v>
@@ -7640,46 +7640,46 @@
         <v>329.485680192289</v>
       </c>
       <c r="H44" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I44" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J44" t="n">
-        <v>344.8139583742029</v>
+        <v>249.7315819058185</v>
       </c>
       <c r="K44" t="n">
-        <v>868.2168169432326</v>
+        <v>773.1344404748482</v>
       </c>
       <c r="L44" t="n">
-        <v>1415.511460712183</v>
+        <v>1474.738596518646</v>
       </c>
       <c r="M44" t="n">
-        <v>1767.769416274169</v>
+        <v>1826.996552080633</v>
       </c>
       <c r="N44" t="n">
-        <v>2130.341082210336</v>
+        <v>2189.568218016799</v>
       </c>
       <c r="O44" t="n">
-        <v>2836.364143234531</v>
+        <v>2895.591279040995</v>
       </c>
       <c r="P44" t="n">
-        <v>3401.264108490334</v>
+        <v>3460.491244296798</v>
       </c>
       <c r="Q44" t="n">
-        <v>3748.258696799037</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="R44" t="n">
         <v>3807.4858326055</v>
       </c>
       <c r="S44" t="n">
-        <v>3742.012625862513</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T44" t="n">
-        <v>3600.244041813158</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U44" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V44" t="n">
         <v>3153.206593873103</v>
@@ -7725,28 +7725,28 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J45" t="n">
-        <v>242.4709188044724</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K45" t="n">
-        <v>653.361187648985</v>
+        <v>528.5310626619803</v>
       </c>
       <c r="L45" t="n">
-        <v>900.1263155554491</v>
+        <v>775.2961905684443</v>
       </c>
       <c r="M45" t="n">
-        <v>1207.446448835411</v>
+        <v>1082.616323848406</v>
       </c>
       <c r="N45" t="n">
-        <v>1537.309076499444</v>
+        <v>1412.478951512439</v>
       </c>
       <c r="O45" t="n">
-        <v>1816.849141718141</v>
+        <v>1787.096091516501</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.766701154948</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q45" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R45" t="n">
         <v>2602.506130567962</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026574</v>
+        <v>638.3928643026572</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147914</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424968</v>
+        <v>456.9802240424967</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001446</v>
       </c>
       <c r="F46" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422753</v>
       </c>
       <c r="G46" t="n">
-        <v>200.4621344021371</v>
+        <v>200.462134402137</v>
       </c>
       <c r="H46" t="n">
         <v>118.8642169901215</v>
@@ -7804,40 +7804,40 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J46" t="n">
-        <v>155.9829803443639</v>
+        <v>155.9829803443641</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L46" t="n">
-        <v>688.7815720567933</v>
+        <v>688.7815720567932</v>
       </c>
       <c r="M46" t="n">
         <v>1027.79888605232</v>
       </c>
       <c r="N46" t="n">
-        <v>1365.793566308212</v>
+        <v>1365.793566308213</v>
       </c>
       <c r="O46" t="n">
-        <v>1667.119115541953</v>
+        <v>1667.119115541954</v>
       </c>
       <c r="P46" t="n">
-        <v>1911.16945137598</v>
+        <v>1911.169451375981</v>
       </c>
       <c r="Q46" t="n">
         <v>2017.453465576481</v>
       </c>
       <c r="R46" t="n">
-        <v>1975.198453178347</v>
+        <v>1975.198453178348</v>
       </c>
       <c r="S46" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T46" t="n">
-        <v>1689.133209963487</v>
+        <v>1689.133209963488</v>
       </c>
       <c r="U46" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V46" t="n">
         <v>1282.960265051241</v>
@@ -7846,10 +7846,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963446</v>
+        <v>903.1937261963451</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928559</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>219.9154419796177</v>
+        <v>146.5746030901479</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,22 +8292,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>110.0844214862404</v>
+        <v>110.0844214862401</v>
       </c>
       <c r="K6" t="n">
-        <v>109.2075429097494</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>202.2213677374114</v>
+        <v>428.4457249022622</v>
       </c>
       <c r="N6" t="n">
-        <v>416.4642451451476</v>
+        <v>328.438098403019</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>100.4064147511803</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>349.7653003338571</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>398.9629823660891</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711638</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>288.4091825776751</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>87.16935584025396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>32.78140656352451</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,19 +10586,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>228.1026080576452</v>
+        <v>224.9319870457272</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>43.84103958705631</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>326.1391665999498</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>13.22842095505656</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>321.6184100369309</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>96.03744927814688</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>73.05381065855423</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>261.7930203334323</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>79.43092547709117</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>54.93426959857879</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23713,13 +23713,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>264.6560363650459</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23890,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>120.6047272882283</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>189.0667619602606</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>119.9500132838971</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>75.26883114644323</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>170.3795572958107</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675362</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>192.8130786476582</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>152.2303518676588</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>121.0138447039339</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>9.390140486064066</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>117.8194197086527</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>82.36272408951429</v>
       </c>
       <c r="S28" t="n">
-        <v>170.3191816693247</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>53.86157510219926</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>258.6357240842988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>224.5360150095495</v>
@@ -24838,25 +24838,25 @@
         <v>152.2303518676588</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.6451927843493</v>
       </c>
       <c r="D31" t="n">
-        <v>121.0138447039338</v>
+        <v>121.0138447039339</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>118.8323343322907</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>117.8194197086527</v>
       </c>
       <c r="G31" t="n">
-        <v>138.8919401490991</v>
+        <v>43.38697336347031</v>
       </c>
       <c r="H31" t="n">
-        <v>20.53017918340265</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>82.81761714999345</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.36272408951427</v>
+        <v>82.3627240895143</v>
       </c>
       <c r="S31" t="n">
-        <v>170.3191816693247</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>198.1080270747586</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>190.9830250378163</v>
       </c>
     </row>
     <row r="32">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1319335.543125357</v>
+        <v>1319335.543125356</v>
       </c>
     </row>
     <row r="12">
@@ -26314,16 +26314,16 @@
         <v>123156.2654796425</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="D2" t="n">
         <v>123156.2654796424</v>
       </c>
       <c r="E2" t="n">
-        <v>117308.7179213126</v>
+        <v>117308.7179213125</v>
       </c>
       <c r="F2" t="n">
-        <v>117308.7179213126</v>
+        <v>117308.7179213125</v>
       </c>
       <c r="G2" t="n">
         <v>117308.7179213126</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>60975.92555038744</v>
+        <v>60975.92555038947</v>
       </c>
       <c r="D3" t="n">
-        <v>359462.5173298117</v>
+        <v>359462.5173298098</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94335.99752256197</v>
+        <v>94335.99752256201</v>
       </c>
       <c r="K3" t="n">
-        <v>14177.10853800586</v>
+        <v>14177.10853800632</v>
       </c>
       <c r="L3" t="n">
-        <v>119246.011269906</v>
+        <v>119246.0112699056</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762902</v>
+        <v>69175.08933762896</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316926.9684369123</v>
+        <v>316926.9684369122</v>
       </c>
       <c r="C4" t="n">
-        <v>299668.3554259911</v>
+        <v>299668.3554259905</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
+        <v>43561.42148316558</v>
+      </c>
+      <c r="F4" t="n">
         <v>43561.42148316556</v>
       </c>
-      <c r="F4" t="n">
-        <v>43561.42148316558</v>
-      </c>
       <c r="G4" t="n">
-        <v>43561.42148316557</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="H4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.42148316554</v>
       </c>
       <c r="I4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="J4" t="n">
-        <v>52643.73274026379</v>
+        <v>52643.73274026378</v>
       </c>
       <c r="K4" t="n">
-        <v>52643.73274026382</v>
+        <v>52643.7327402638</v>
       </c>
       <c r="L4" t="n">
-        <v>65980.20872448603</v>
+        <v>65980.20872448602</v>
       </c>
       <c r="M4" t="n">
+        <v>99837.12979766782</v>
+      </c>
+      <c r="N4" t="n">
         <v>99837.12979766788</v>
       </c>
-      <c r="N4" t="n">
-        <v>99837.12979766783</v>
-      </c>
       <c r="O4" t="n">
+        <v>99837.12979766785</v>
+      </c>
+      <c r="P4" t="n">
         <v>99837.12979766788</v>
-      </c>
-      <c r="P4" t="n">
-        <v>99837.12979766785</v>
       </c>
     </row>
     <row r="5">
@@ -26470,34 +26470,34 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>55564.27390978089</v>
+        <v>55564.27390978104</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>94307.76723946973</v>
+        <v>94307.76723946971</v>
       </c>
       <c r="K5" t="n">
         <v>94307.76723946971</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>81703.90096581174</v>
@@ -26506,7 +26506,7 @@
         <v>81703.90096581174</v>
       </c>
       <c r="O5" t="n">
-        <v>81703.90096581174</v>
+        <v>81703.90096581176</v>
       </c>
       <c r="P5" t="n">
         <v>81703.90096581174</v>
@@ -26522,46 +26522,46 @@
         <v>-371245.4239208629</v>
       </c>
       <c r="C6" t="n">
-        <v>-293052.289406517</v>
+        <v>-293052.2894065186</v>
       </c>
       <c r="D6" t="n">
-        <v>-511371.9263060085</v>
+        <v>-511371.9263060065</v>
       </c>
       <c r="E6" t="n">
-        <v>-543400.0659874658</v>
+        <v>-543497.5251134379</v>
       </c>
       <c r="F6" t="n">
-        <v>-18240.0295105696</v>
+        <v>-18337.48863654182</v>
       </c>
       <c r="G6" t="n">
-        <v>-18240.02951056958</v>
+        <v>-18337.48863654175</v>
       </c>
       <c r="H6" t="n">
-        <v>-18240.02951056961</v>
+        <v>-18337.48863654169</v>
       </c>
       <c r="I6" t="n">
-        <v>-18240.02951056961</v>
+        <v>-18337.48863654182</v>
       </c>
       <c r="J6" t="n">
-        <v>-121609.8179398486</v>
+        <v>-121667.7943718019</v>
       </c>
       <c r="K6" t="n">
-        <v>-41450.92895529246</v>
+        <v>-41508.90538724619</v>
       </c>
       <c r="L6" t="n">
-        <v>-159785.0603347748</v>
+        <v>-159785.0603347745</v>
       </c>
       <c r="M6" t="n">
-        <v>-127559.8546214661</v>
+        <v>-127559.854621466</v>
       </c>
       <c r="N6" t="n">
-        <v>-58384.76528383707</v>
+        <v>-58384.76528383709</v>
       </c>
       <c r="O6" t="n">
-        <v>-80466.06793525991</v>
+        <v>-80466.0679352599</v>
       </c>
       <c r="P6" t="n">
-        <v>-58384.76528383709</v>
+        <v>-58384.76528383711</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="K2" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.43998649668937</v>
+        <v>82.43998649669101</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>331.2414836209386</v>
+        <v>331.2414836209405</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26826,7 +26826,7 @@
         <v>951.8714581513751</v>
       </c>
       <c r="O4" t="n">
-        <v>951.8714581513751</v>
+        <v>951.8714581513752</v>
       </c>
       <c r="P4" t="n">
         <v>951.8714581513751</v>
@@ -26923,25 +26923,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.60162831427855</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40.53026181536213</v>
+        <v>40.53026181536217</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>27.60162831427854</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>47.41872577756408</v>
+        <v>47.41872577756567</v>
       </c>
       <c r="D3" t="n">
-        <v>295.3036777203972</v>
+        <v>295.3036777203956</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>55.08496991858319</v>
+        <v>55.08496991858497</v>
       </c>
       <c r="D4" t="n">
-        <v>343.045789133617</v>
+        <v>343.0457891336151</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023556</v>
+        <v>276.1565137023558</v>
       </c>
       <c r="K4" t="n">
-        <v>55.08496991858296</v>
+        <v>55.08496991858475</v>
       </c>
       <c r="L4" t="n">
-        <v>343.045789133617</v>
+        <v>343.0457891336154</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968195</v>
+        <v>277.5841853968193</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.60162831427855</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>55.08496991858319</v>
+        <v>55.08496991858497</v>
       </c>
       <c r="L4" t="n">
-        <v>343.045789133617</v>
+        <v>343.0457891336151</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>79.8054106882924</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>248.716227100566</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194537</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>143.4712894367922</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>121.3474996766428</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.70078623405945</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>14.93225064571201</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>139.4727178756576</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27634,7 +27634,7 @@
         <v>336.0806774455793</v>
       </c>
       <c r="I5" t="n">
-        <v>197.6989344772858</v>
+        <v>197.6989344772856</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>129.0507428586461</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.6450715103052</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>198.8420165840221</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>17.99948509647254</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>38.48961705752856</v>
       </c>
       <c r="Y5" t="n">
-        <v>54.99645503511499</v>
+        <v>237.8733660219242</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2.932201349998024</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27713,7 +27713,7 @@
         <v>110.522870177386</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>83.29140743632993</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>89.14820727672677</v>
+        <v>89.14820727672654</v>
       </c>
       <c r="S6" t="n">
-        <v>168.3894603225786</v>
+        <v>168.3894603225785</v>
       </c>
       <c r="T6" t="n">
         <v>199.4499895666097</v>
       </c>
       <c r="U6" t="n">
-        <v>27.98597857366974</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.842317087727</v>
+        <v>155.8895082961146</v>
       </c>
       <c r="H7" t="n">
         <v>160.9054297731156</v>
       </c>
       <c r="I7" t="n">
-        <v>150.9797950037985</v>
+        <v>150.9797950037984</v>
       </c>
       <c r="J7" t="n">
-        <v>82.84875757593912</v>
+        <v>82.8487575759389</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>73.71360529069429</v>
+        <v>73.71360529069405</v>
       </c>
       <c r="R7" t="n">
-        <v>170.6089950949953</v>
+        <v>170.6089950949952</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>221.4258201006746</v>
       </c>
       <c r="T7" t="n">
         <v>227.3103960897004</v>
       </c>
       <c r="U7" t="n">
-        <v>277.1992784623299</v>
+        <v>286.3109205053601</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,10 +27859,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>266.4737770261562</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>185.3577537430465</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>11.36078253109406</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="C28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="D28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="E28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="F28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="G28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="H28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="I28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="J28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="K28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="L28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="M28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="N28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="O28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="P28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="R28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="S28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="T28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="U28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="V28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="W28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="X28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="C31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="D31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="E31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="F31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="G31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="H31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="I31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="J31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="K31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="L31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="M31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="N31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="O31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="P31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="Q31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="R31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="S31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="T31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="U31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="V31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="W31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="X31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.6016283142785</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964182</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964182</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964101</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964182</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W41" t="n">
         <v>68.13189012964065</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.13189012964145</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964182</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3314170311424696</v>
+        <v>0.3314170311424762</v>
       </c>
       <c r="H5" t="n">
-        <v>3.394124670187817</v>
+        <v>3.394124670187885</v>
       </c>
       <c r="I5" t="n">
-        <v>12.77695509312007</v>
+        <v>12.77695509312032</v>
       </c>
       <c r="J5" t="n">
-        <v>28.1286062469282</v>
+        <v>28.12860624692876</v>
       </c>
       <c r="K5" t="n">
-        <v>42.15748917518895</v>
+        <v>42.15748917518979</v>
       </c>
       <c r="L5" t="n">
-        <v>52.30009314201531</v>
+        <v>52.30009314201635</v>
       </c>
       <c r="M5" t="n">
-        <v>58.19393076959521</v>
+        <v>58.19393076959636</v>
       </c>
       <c r="N5" t="n">
-        <v>59.13556940932875</v>
+        <v>59.13556940932992</v>
       </c>
       <c r="O5" t="n">
-        <v>55.84004130590581</v>
+        <v>55.84004130590692</v>
       </c>
       <c r="P5" t="n">
-        <v>47.65818334957609</v>
+        <v>47.65818334957704</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.78931092178639</v>
+        <v>35.7893109217871</v>
       </c>
       <c r="R5" t="n">
-        <v>20.81837508250317</v>
+        <v>20.81837508250359</v>
       </c>
       <c r="S5" t="n">
-        <v>7.552165597159033</v>
+        <v>7.552165597159183</v>
       </c>
       <c r="T5" t="n">
-        <v>1.450778053826161</v>
+        <v>1.45077805382619</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02651336249139756</v>
+        <v>0.02651336249139809</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1773237445400488</v>
+        <v>0.1773237445400524</v>
       </c>
       <c r="H6" t="n">
-        <v>1.712574059110472</v>
+        <v>1.712574059110506</v>
       </c>
       <c r="I6" t="n">
-        <v>6.105225415085016</v>
+        <v>6.105225415085137</v>
       </c>
       <c r="J6" t="n">
-        <v>16.75320518042628</v>
+        <v>16.75320518042662</v>
       </c>
       <c r="K6" t="n">
-        <v>28.63389606460956</v>
+        <v>28.63389606461012</v>
       </c>
       <c r="L6" t="n">
-        <v>38.50180690111894</v>
+        <v>38.50180690111971</v>
       </c>
       <c r="M6" t="n">
-        <v>44.9297926406957</v>
+        <v>44.92979264069659</v>
       </c>
       <c r="N6" t="n">
-        <v>46.11895055912437</v>
+        <v>46.11895055912529</v>
       </c>
       <c r="O6" t="n">
-        <v>42.18982969326328</v>
+        <v>42.18982969326412</v>
       </c>
       <c r="P6" t="n">
-        <v>33.86105784993266</v>
+        <v>33.86105784993333</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.6352204433929</v>
+        <v>22.63522044339335</v>
       </c>
       <c r="R6" t="n">
-        <v>11.00962687591637</v>
+        <v>11.00962687591659</v>
       </c>
       <c r="S6" t="n">
-        <v>3.293710781259239</v>
+        <v>3.293710781259304</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7147391282118633</v>
+        <v>0.7147391282118775</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01166603582500322</v>
+        <v>0.01166603582500345</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1486622707317349</v>
+        <v>0.1486622707317379</v>
       </c>
       <c r="H7" t="n">
-        <v>1.321742734323971</v>
+        <v>1.321742734323998</v>
       </c>
       <c r="I7" t="n">
-        <v>4.470679923459811</v>
+        <v>4.4706799234599</v>
       </c>
       <c r="J7" t="n">
-        <v>10.51042254073366</v>
+        <v>10.51042254073387</v>
       </c>
       <c r="K7" t="n">
-        <v>17.27185290865065</v>
+        <v>17.271852908651</v>
       </c>
       <c r="L7" t="n">
-        <v>22.10202523224358</v>
+        <v>22.10202523224401</v>
       </c>
       <c r="M7" t="n">
-        <v>23.30348667479368</v>
+        <v>23.30348667479414</v>
       </c>
       <c r="N7" t="n">
-        <v>22.74938184752087</v>
+        <v>22.74938184752132</v>
       </c>
       <c r="O7" t="n">
-        <v>21.0127362303365</v>
+        <v>21.01273623033692</v>
       </c>
       <c r="P7" t="n">
-        <v>17.9800259074091</v>
+        <v>17.98002590740945</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.44843796100009</v>
+        <v>12.44843796100034</v>
       </c>
       <c r="R7" t="n">
-        <v>6.684396282174188</v>
+        <v>6.684396282174321</v>
       </c>
       <c r="S7" t="n">
-        <v>2.590777936297598</v>
+        <v>2.590777936297649</v>
       </c>
       <c r="T7" t="n">
-        <v>0.635193338581049</v>
+        <v>0.6351933385810616</v>
       </c>
       <c r="U7" t="n">
-        <v>0.008108851130821914</v>
+        <v>0.008108851130822074</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>94.2379440986175</v>
+        <v>20.8971052091478</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>16.17931689231569</v>
+        <v>16.17931689231624</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2130507013731</v>
+        <v>146.213050701374</v>
       </c>
       <c r="L5" t="n">
-        <v>234.1948927224785</v>
+        <v>234.1948927224796</v>
       </c>
       <c r="M5" t="n">
-        <v>277.361231035155</v>
+        <v>277.3612310351561</v>
       </c>
       <c r="N5" t="n">
-        <v>267.069430224722</v>
+        <v>267.0694302247232</v>
       </c>
       <c r="O5" t="n">
-        <v>206.5420111469645</v>
+        <v>206.5420111469655</v>
       </c>
       <c r="P5" t="n">
-        <v>138.2238957657892</v>
+        <v>138.2238957657901</v>
       </c>
       <c r="Q5" t="n">
-        <v>25.79861170724158</v>
+        <v>25.79861170724229</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>155.2576941028297</v>
       </c>
       <c r="L6" t="n">
-        <v>270.7877724247039</v>
+        <v>270.7877724247047</v>
       </c>
       <c r="M6" t="n">
-        <v>105.0171264560887</v>
+        <v>331.2414836209405</v>
       </c>
       <c r="N6" t="n">
-        <v>331.2414836209386</v>
+        <v>243.215336878811</v>
       </c>
       <c r="O6" t="n">
-        <v>293.4559045255484</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>218.3494190755396</v>
+        <v>218.3494190755403</v>
       </c>
       <c r="Q6" t="n">
-        <v>92.73073409322049</v>
+        <v>92.73073409322093</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>49.69205049255972</v>
+        <v>49.69205049256016</v>
       </c>
       <c r="M7" t="n">
-        <v>62.88736363663427</v>
+        <v>62.88736363663473</v>
       </c>
       <c r="N7" t="n">
-        <v>66.88155422674946</v>
+        <v>66.88155422674991</v>
       </c>
       <c r="O7" t="n">
-        <v>45.59786414437617</v>
+        <v>45.59786414437659</v>
       </c>
       <c r="P7" t="n">
-        <v>15.25858517230258</v>
+        <v>15.25858517230294</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>632.1290025749652</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35662,13 +35662,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>709.3873594165555</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303321</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36294,7 +36294,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187476</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>598.8335596281414</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>294.2627707717787</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36680,7 +36680,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,10 +36689,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>239.8748214950492</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586612</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>40.10939847984405</v>
+        <v>40.10939847984403</v>
       </c>
       <c r="K28" t="n">
         <v>179.3040568441891</v>
@@ -36771,7 +36771,7 @@
         <v>205.9852289260793</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.82732828615329</v>
+        <v>66.82732828615326</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>40.10939847984405</v>
+        <v>40.10939847984403</v>
       </c>
       <c r="K31" t="n">
         <v>179.3040568441891</v>
@@ -37008,7 +37008,7 @@
         <v>205.9852289260793</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.82732828615329</v>
+        <v>66.82732828615326</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,19 +37306,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>204.5443435591683</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>583.9187247869244</v>
+        <v>580.7481037750064</v>
       </c>
       <c r="N35" t="n">
         <v>366.2340059961277</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K38" t="n">
-        <v>248.3853831462246</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37552,7 +37552,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>692.3731725960774</v>
       </c>
       <c r="O38" t="n">
         <v>332.3544258324018</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>115.5098277244907</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>355.8161167292792</v>
       </c>
       <c r="N41" t="n">
-        <v>687.8524160330586</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2951542341712</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37877,7 +37877,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>175.3352174279884</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>552.822872493889</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>355.8161167292792</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38108,16 +38108,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
